--- a/data/trans_dic/P36B13_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,25; 97,66</t>
+          <t>92,36; 97,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,19; 99,3</t>
+          <t>97,13; 99,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,44; 98,15</t>
+          <t>95,3; 98,21</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,68; 65,8</t>
+          <t>55,35; 66,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,14; 79,17</t>
+          <t>72,23; 79,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,35; 71,66</t>
+          <t>65,42; 71,54</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,29; 89,12</t>
+          <t>81,22; 89,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,84; 93,53</t>
+          <t>88,03; 93,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,09; 90,85</t>
+          <t>85,91; 90,59</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,74; 93,14</t>
+          <t>84,22; 92,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,4; 96,03</t>
+          <t>92,4; 96,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,82; 94,23</t>
+          <t>89,54; 94,2</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,1; 98,96</t>
+          <t>94,61; 98,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,59; 97,21</t>
+          <t>92,41; 97,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,66; 97,72</t>
+          <t>94,52; 97,73</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,84; 95,17</t>
+          <t>89,11; 95,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,87; 97,67</t>
+          <t>93,79; 97,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,32; 96,11</t>
+          <t>92,35; 95,97</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,44; 82,84</t>
+          <t>74,81; 82,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,35; 89,79</t>
+          <t>79,2; 89,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,46; 85,55</t>
+          <t>78,55; 85,74</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>89,12; 93,71</t>
+          <t>89,17; 93,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,96; 91,16</t>
+          <t>86,72; 90,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,71; 91,7</t>
+          <t>88,71; 91,94</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83,1; 86,06</t>
+          <t>82,98; 86,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>87,24; 89,65</t>
+          <t>87,2; 89,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>85,58; 87,51</t>
+          <t>85,61; 87,48</t>
         </is>
       </c>
     </row>
